--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560367/JX560367_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560367/JX560367_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89322958687</v>
+        <v>45441.83348795704</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['2114g&gt;c']</t>
+          <t>['2028_2126del', '2230_2267insgcgtgacgcgctgactcactctatgatgactcggaag', '2235_2371insaaggtcaaagctccacgttgtagatgatacgtgtatagtaaatcttcgcacgatttaatgataacttaagtctgaggctagtgcggcgttaacgccgcccagcagactgttgttgtatgatcgtaatgcccaactt', '2078_2182inscggaaccatccctagggaagagaatttccactcgctaggatctcgtagttagaccggctgcgatcaacagtagtcaccgggtaaattgcacctaatgattaagg', '2127_2237del']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.89322960999</v>
+        <v>45441.83348798596</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['601t&gt;a']</t>
+          <t>['665_755insgaattgctttcgggtgaacgacctgcccccctttacgtcaacaatatgtccatcacgagtatgtgatgttttggcctttagctaatttcg', '697_798inscgaaacccggcaataggccacacgaggtcgtacggtcgtatttgcatgtaccatacgagttcccggcggccataggctcacgatgagctacatggcccctc', '619_713insctttggttgtaacgagtactcacggcggtatgtcccttacaattttgcagaagattagctgacataaaaaacctgacctcattctgtggtaaat', '658_723del', '658_673del']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.89322963315</v>
+        <v>45441.83348800911</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['3827_3831inscact']</t>
+          <t>['3829_3869insaggagacgacgccttgttgcccgtttatgttgctgacctc', '3833_3919del', '3871_3981del', '3862_3897insggctttcaatcagggctgccaacaatggccccaag', '3842_3947instctttgcgggccgccaaacgcctgggaggatcccgttcgtccaagcacccgtcagtgaggagtatcggtccataacacgatcgtttgagatatgctgtgtttcat']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89322975591</v>
+        <v>45441.83348814883</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['2021_2024del']</t>
+          <t>['2036_2051del', '2108_2181insaataaacggtcgtcctaccatgaaagtactaatgaaggccggtttagggagcctctgcctgaatattacgccc', '2199_2314insagtgccaactattcgttaatacgagcttggcatgcggaatcaggcgcattttagtacctatttgaccatgcatagaaagctagactcatgggaggtgagcgacgtgaactctctc', '2129_2279insagctactccggttgcactgatattcagccgtctcaggctgaattcccagttctgtggtttgggtctgtgccactagggtggtaagtgcactagacggcccaattgacgggcagcatacagcctgggtggattaattggtagtttctagtc', '2051_2189del']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['652t&gt;a']</t>
+          <t>['619_667insaatatacgggcagatgcctcgccgctcctagcaacgtctgcgtgatga', '612_758instagagaaccaggggaagttttacctcgctgaacgtgtgcggcagagttctttgcaatggactacgtcagttcatacgagggtctcgttaacctgggcgcagcgaacgaacaatgcgtggcagagcgcccttcgccccagttcatct', '625_684insgcagatcatgcggacaacccctatcaagctgggcctggttcttaattttaaacaccctt', '637_682del', '685_765del']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.89322978489</v>
+        <v>45441.83348817198</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['2159_2162inscat']</t>
+          <t>['2127_2269del', '2217_2315instattgcgccacgaatcttttcaggccggaaaactacgtgttgacacattttagcgtgaattaattagcgcggtttttctactatcaagccagtgtttt', '2260_2378del', '2085_2126del', '2145_2289insgtcgacatcatgggggctcacgcacttatgggtcctgctgggcgcacttcctgcgcgtcactgggtgcggggacatcgtaatcgtccgcaacacgtatccggtctcggagatcccgtgccgcgctagcctatagccttaacttc']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['3824_3827instcg']</t>
+          <t>['3903_3988insacaatgtccgaattttacttgaccccgctctagatttcagtgactggacactcccagtttccctaatattatataattaccggaa', '3848_3938del', '3814_3889del', '3904_4030del', '3814_3934insagacgaggtatagctacattgcgttaaccttgtggtcttcgactcgtattgattccaattgaggacgaaaacgcagagtcataggtatcaaacacacttgcacaatatagatataaacca']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.89322980225</v>
+        <v>45441.83348819513</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['665_665del']</t>
+          <t>['690_813instattaaacccctgtgcgaactggtccgcgaatgatgaatagttgatcccttgggtcatgaccaatactattccaaatccgccaatatctggatcgaacatgcctcaagcatagttgtccgcgc', '603_713insgctggacggcctgattcatttaggacgccccccgtgggtggaagcacattgctgctgcgagtaccaagtaattcctgacaagcctgatggttaggagctctactaatgag', '635_699del', '622_720insctgtgatgcaactaagatatcctctattcaaggctcgcctaggtcaggtcgacttgcatccatcgagaaatggcactctatgccggttagaagatccc', '655_780insgtctaagtgcactttccacgcttgcatgagttctcggttgcggcatcaaaggtgtagcagacggagtggctctaccttgccagaatccgtacctggggtagtcaaatggatcagattccgatgtg']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['3877_3877del']</t>
+          <t>['3909_3953insacggcgcgcgtctgcgagttccatacgtacactaacaaccttag', '3846_3911instgtgcaccaccaacaagaggtacatgtggataatgacgtacttggctgtatgaggcgtgaggacg', '3851_3862del', '3828_3852insgaattcggcatcgtattaaagggt', '3828_3900inscccgaagcaagcacgggcttatcagccggctgcgccctacccaattagtccctttctcctacggaaaaagat']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89322982539</v>
+        <v>45441.83348821826</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['2197c&gt;g']</t>
+          <t>['2123_2215del', '2025_2084instctttgtgccgtatagccagtatgtctttaccgcgtatatagacgcaaaaactcgtgaa', '2150_2258insaggtaacccgcgggagaatgctagcccttagtgtttcgttcgtccaagccacagccaagggcattctcggcgttctcaggttgtgaatggactgtaacgccttcgctc', '2149_2294insataatcctggtgcatgagatactcctctcgcggttgtcgtgatttgggacgtacccagtcggatctatgttactatgaatagcaaaatgcaaatctggagaatttggtctcgcccccccgctcggacgatcttaggtcttgctgt', '2083_2158del']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['647g&gt;a']</t>
+          <t>['619_652del', '673_745insccttaccccgtcgcagtgctctggaccagggtgtgggttacacacctacaactcagtggcctaaggtcaaga', '700_795del', '626_775del', '619_724del']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['3890t&gt;c']</t>
+          <t>['3892_3910insagcaatccgcactttagc', '3891_3969insaagtgcccgagaaagttttccattcccatggcacgaggtggaatcccatctcgcccaaggcgggtgtaagacaaaact', '3900_3941del', '3849_3929insgattgcggggtgcgtgttgcgggcggttggtcagtaccacactgccttcaggatagtgatcaggagtcaagctttccaga', '3900_3959instccgttaaagctctggggaggagaagggtgatgacgcaacgtctcaggcagtagtctga']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89322984275</v>
+        <v>45441.83348824142</v>
       </c>
     </row>
   </sheetData>
